--- a/ham/record.xlsx
+++ b/ham/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywebsite\pyaston.github.io\ham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC2A7B-9BEE-4353-B965-0D3E78A6E0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC4D290-0703-44E0-9FFC-D75DA3294FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3492" yWindow="3060" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>2025.Jan.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>NOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:11(UTC+8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜春中继</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +489,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -575,6 +583,9 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -583,6 +594,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -609,6 +623,9 @@
       </c>
       <c r="L3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
